--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tgfb2-Tgfbr1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tgfb2-Tgfbr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Tgfbr1</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.75450967993834</v>
+        <v>1.833451</v>
       </c>
       <c r="H2">
-        <v>1.75450967993834</v>
+        <v>5.500353</v>
       </c>
       <c r="I2">
-        <v>0.09218924812392852</v>
+        <v>0.08912979432221635</v>
       </c>
       <c r="J2">
-        <v>0.09218924812392852</v>
+        <v>0.1065114253185847</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.1657900451718</v>
+        <v>10.99123566666667</v>
       </c>
       <c r="N2">
-        <v>10.1657900451718</v>
+        <v>32.973707</v>
       </c>
       <c r="O2">
-        <v>0.06855091552083829</v>
+        <v>0.06247112414817082</v>
       </c>
       <c r="P2">
-        <v>0.06855091552083829</v>
+        <v>0.06381790718517791</v>
       </c>
       <c r="Q2">
-        <v>17.83597703847474</v>
+        <v>20.15189202428567</v>
       </c>
       <c r="R2">
-        <v>17.83597703847474</v>
+        <v>181.367028218571</v>
       </c>
       <c r="S2">
-        <v>0.006319657360073025</v>
+        <v>0.005568038446404108</v>
       </c>
       <c r="T2">
-        <v>0.006319657360073025</v>
+        <v>0.00679733625514245</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.75450967993834</v>
+        <v>1.833451</v>
       </c>
       <c r="H3">
-        <v>1.75450967993834</v>
+        <v>5.500353</v>
       </c>
       <c r="I3">
-        <v>0.09218924812392852</v>
+        <v>0.08912979432221635</v>
       </c>
       <c r="J3">
-        <v>0.09218924812392852</v>
+        <v>0.1065114253185847</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.5667246308066</v>
+        <v>16.58451233333333</v>
       </c>
       <c r="N3">
-        <v>15.5667246308066</v>
+        <v>49.753537</v>
       </c>
       <c r="O3">
-        <v>0.1049710076994357</v>
+        <v>0.09426175184784683</v>
       </c>
       <c r="P3">
-        <v>0.1049710076994357</v>
+        <v>0.09629389277948987</v>
       </c>
       <c r="Q3">
-        <v>27.31196904968476</v>
+        <v>30.40689072206233</v>
       </c>
       <c r="R3">
-        <v>27.31196904968476</v>
+        <v>273.662016498561</v>
       </c>
       <c r="S3">
-        <v>0.00967719827462209</v>
+        <v>0.008401530554650384</v>
       </c>
       <c r="T3">
-        <v>0.00967719827462209</v>
+        <v>0.01025639976941844</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.75450967993834</v>
+        <v>1.833451</v>
       </c>
       <c r="H4">
-        <v>1.75450967993834</v>
+        <v>5.500353</v>
       </c>
       <c r="I4">
-        <v>0.09218924812392852</v>
+        <v>0.08912979432221635</v>
       </c>
       <c r="J4">
-        <v>0.09218924812392852</v>
+        <v>0.1065114253185847</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.31177939613</v>
+        <v>78.20455633333331</v>
       </c>
       <c r="N4">
-        <v>61.31177939613</v>
+        <v>234.613669</v>
       </c>
       <c r="O4">
-        <v>0.4134433812955413</v>
+        <v>0.4444929301687811</v>
       </c>
       <c r="P4">
-        <v>0.4134433812955413</v>
+        <v>0.4540755260734272</v>
       </c>
       <c r="Q4">
-        <v>107.5721104447541</v>
+        <v>143.3842220139063</v>
       </c>
       <c r="R4">
-        <v>107.5721104447541</v>
+        <v>1290.457998125157</v>
       </c>
       <c r="S4">
-        <v>0.03811503446345064</v>
+        <v>0.03961756344362274</v>
       </c>
       <c r="T4">
-        <v>0.03811503446345064</v>
+        <v>0.04836423148436692</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.75450967993834</v>
+        <v>1.833451</v>
       </c>
       <c r="H5">
-        <v>1.75450967993834</v>
+        <v>5.500353</v>
       </c>
       <c r="I5">
-        <v>0.09218924812392852</v>
+        <v>0.08912979432221635</v>
       </c>
       <c r="J5">
-        <v>0.09218924812392852</v>
+        <v>0.1065114253185847</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>50.2693112951037</v>
+        <v>59.02182200000001</v>
       </c>
       <c r="N5">
-        <v>50.2693112951037</v>
+        <v>177.065466</v>
       </c>
       <c r="O5">
-        <v>0.3389807675123138</v>
+        <v>0.3354636076811054</v>
       </c>
       <c r="P5">
-        <v>0.3389807675123138</v>
+        <v>0.3426956961462742</v>
       </c>
       <c r="Q5">
-        <v>88.19799327109317</v>
+        <v>108.213618567722</v>
       </c>
       <c r="R5">
-        <v>88.19799327109317</v>
+        <v>973.922567109498</v>
       </c>
       <c r="S5">
-        <v>0.03125038208543243</v>
+        <v>0.0298998023552056</v>
       </c>
       <c r="T5">
-        <v>0.03125038208543243</v>
+        <v>0.0365010070470843</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.75450967993834</v>
+        <v>1.833451</v>
       </c>
       <c r="H6">
-        <v>1.75450967993834</v>
+        <v>5.500353</v>
       </c>
       <c r="I6">
-        <v>0.09218924812392852</v>
+        <v>0.08912979432221635</v>
       </c>
       <c r="J6">
-        <v>0.09218924812392852</v>
+        <v>0.1065114253185847</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.9818618476871</v>
+        <v>11.1389315</v>
       </c>
       <c r="N6">
-        <v>10.9818618476871</v>
+        <v>22.277863</v>
       </c>
       <c r="O6">
-        <v>0.07405392797187098</v>
+        <v>0.06331058615409579</v>
       </c>
       <c r="P6">
-        <v>0.07405392797187098</v>
+        <v>0.04311697781563077</v>
       </c>
       <c r="Q6">
-        <v>19.26778291551256</v>
+        <v>20.4226850976065</v>
       </c>
       <c r="R6">
-        <v>19.26778291551256</v>
+        <v>122.536110585639</v>
       </c>
       <c r="S6">
-        <v>0.006826975940350344</v>
+        <v>0.005642859522333516</v>
       </c>
       <c r="T6">
-        <v>0.006826975940350344</v>
+        <v>0.004592450762572631</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.67158210149335</v>
+        <v>8.640871666666667</v>
       </c>
       <c r="H7">
-        <v>7.67158210149335</v>
+        <v>25.922615</v>
       </c>
       <c r="I7">
-        <v>0.4030968845281688</v>
+        <v>0.4200598294771264</v>
       </c>
       <c r="J7">
-        <v>0.4030968845281688</v>
+        <v>0.5019777224543451</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.1657900451718</v>
+        <v>10.99123566666667</v>
       </c>
       <c r="N7">
-        <v>10.1657900451718</v>
+        <v>32.973707</v>
       </c>
       <c r="O7">
-        <v>0.06855091552083829</v>
+        <v>0.06247112414817082</v>
       </c>
       <c r="P7">
-        <v>0.06855091552083829</v>
+        <v>0.06381790718517791</v>
       </c>
       <c r="Q7">
-        <v>77.98769295807925</v>
+        <v>94.97385685375613</v>
       </c>
       <c r="R7">
-        <v>77.98769295807925</v>
+        <v>854.7647116838051</v>
       </c>
       <c r="S7">
-        <v>0.02763266047800361</v>
+        <v>0.02624160975692503</v>
       </c>
       <c r="T7">
-        <v>0.02763266047800361</v>
+        <v>0.03203516770061839</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.67158210149335</v>
+        <v>8.640871666666667</v>
       </c>
       <c r="H8">
-        <v>7.67158210149335</v>
+        <v>25.922615</v>
       </c>
       <c r="I8">
-        <v>0.4030968845281688</v>
+        <v>0.4200598294771264</v>
       </c>
       <c r="J8">
-        <v>0.4030968845281688</v>
+        <v>0.5019777224543451</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.5667246308066</v>
+        <v>16.58451233333333</v>
       </c>
       <c r="N8">
-        <v>15.5667246308066</v>
+        <v>49.753537</v>
       </c>
       <c r="O8">
-        <v>0.1049710076994357</v>
+        <v>0.09426175184784683</v>
       </c>
       <c r="P8">
-        <v>0.1049710076994357</v>
+        <v>0.09629389277948987</v>
       </c>
       <c r="Q8">
-        <v>119.4214060565716</v>
+        <v>143.3046427265839</v>
       </c>
       <c r="R8">
-        <v>119.4214060565716</v>
+        <v>1289.741784539255</v>
       </c>
       <c r="S8">
-        <v>0.04231348616942496</v>
+        <v>0.03959557540742174</v>
       </c>
       <c r="T8">
-        <v>0.04231348616942496</v>
+        <v>0.04833738898371123</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.67158210149335</v>
+        <v>8.640871666666667</v>
       </c>
       <c r="H9">
-        <v>7.67158210149335</v>
+        <v>25.922615</v>
       </c>
       <c r="I9">
-        <v>0.4030968845281688</v>
+        <v>0.4200598294771264</v>
       </c>
       <c r="J9">
-        <v>0.4030968845281688</v>
+        <v>0.5019777224543451</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>61.31177939613</v>
+        <v>78.20455633333331</v>
       </c>
       <c r="N9">
-        <v>61.31177939613</v>
+        <v>234.613669</v>
       </c>
       <c r="O9">
-        <v>0.4134433812955413</v>
+        <v>0.4444929301687811</v>
       </c>
       <c r="P9">
-        <v>0.4134433812955413</v>
+        <v>0.4540755260734272</v>
       </c>
       <c r="Q9">
-        <v>470.3583494260596</v>
+        <v>675.7555350249371</v>
       </c>
       <c r="R9">
-        <v>470.3583494260596</v>
+        <v>6081.799815224434</v>
       </c>
       <c r="S9">
-        <v>0.1666577389290244</v>
+        <v>0.1867136244504864</v>
       </c>
       <c r="T9">
-        <v>0.1666577389290244</v>
+        <v>0.2279357984005976</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.67158210149335</v>
+        <v>8.640871666666667</v>
       </c>
       <c r="H10">
-        <v>7.67158210149335</v>
+        <v>25.922615</v>
       </c>
       <c r="I10">
-        <v>0.4030968845281688</v>
+        <v>0.4200598294771264</v>
       </c>
       <c r="J10">
-        <v>0.4030968845281688</v>
+        <v>0.5019777224543451</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>50.2693112951037</v>
+        <v>59.02182200000001</v>
       </c>
       <c r="N10">
-        <v>50.2693112951037</v>
+        <v>177.065466</v>
       </c>
       <c r="O10">
-        <v>0.3389807675123138</v>
+        <v>0.3354636076811054</v>
       </c>
       <c r="P10">
-        <v>0.3389807675123138</v>
+        <v>0.3426956961462742</v>
       </c>
       <c r="Q10">
-        <v>385.645148785915</v>
+        <v>509.9999894348434</v>
       </c>
       <c r="R10">
-        <v>385.645148785915</v>
+        <v>4589.99990491359</v>
       </c>
       <c r="S10">
-        <v>0.1366420912991812</v>
+        <v>0.1409147858383067</v>
       </c>
       <c r="T10">
-        <v>0.1366420912991812</v>
+        <v>0.172025605046413</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.67158210149335</v>
+        <v>8.640871666666667</v>
       </c>
       <c r="H11">
-        <v>7.67158210149335</v>
+        <v>25.922615</v>
       </c>
       <c r="I11">
-        <v>0.4030968845281688</v>
+        <v>0.4200598294771264</v>
       </c>
       <c r="J11">
-        <v>0.4030968845281688</v>
+        <v>0.5019777224543451</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.9818618476871</v>
+        <v>11.1389315</v>
       </c>
       <c r="N11">
-        <v>10.9818618476871</v>
+        <v>22.277863</v>
       </c>
       <c r="O11">
-        <v>0.07405392797187098</v>
+        <v>0.06331058615409579</v>
       </c>
       <c r="P11">
-        <v>0.07405392797187098</v>
+        <v>0.04311697781563077</v>
       </c>
       <c r="Q11">
-        <v>84.24825479178904</v>
+        <v>96.25007759529085</v>
       </c>
       <c r="R11">
-        <v>84.24825479178904</v>
+        <v>577.5004655717451</v>
       </c>
       <c r="S11">
-        <v>0.0298509076525346</v>
+        <v>0.0265942340239864</v>
       </c>
       <c r="T11">
-        <v>0.0298509076525346</v>
+        <v>0.02164376232300486</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>9.605516737381491</v>
+        <v>0.025497</v>
       </c>
       <c r="H12">
-        <v>9.605516737381491</v>
+        <v>0.076491</v>
       </c>
       <c r="I12">
-        <v>0.5047138673479027</v>
+        <v>0.001239489010523625</v>
       </c>
       <c r="J12">
-        <v>0.5047138673479027</v>
+        <v>0.001481207739583962</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.1657900451718</v>
+        <v>10.99123566666667</v>
       </c>
       <c r="N12">
-        <v>10.1657900451718</v>
+        <v>32.973707</v>
       </c>
       <c r="O12">
-        <v>0.06855091552083829</v>
+        <v>0.06247112414817082</v>
       </c>
       <c r="P12">
-        <v>0.06855091552083829</v>
+        <v>0.06381790718517791</v>
       </c>
       <c r="Q12">
-        <v>97.64766642760387</v>
+        <v>0.280243535793</v>
       </c>
       <c r="R12">
-        <v>97.64766642760387</v>
+        <v>2.522191822137001</v>
       </c>
       <c r="S12">
-        <v>0.03459859768276166</v>
+        <v>7.743227185671477E-05</v>
       </c>
       <c r="T12">
-        <v>0.03459859768276166</v>
+        <v>9.452757804673648E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>9.605516737381491</v>
+        <v>0.025497</v>
       </c>
       <c r="H13">
-        <v>9.605516737381491</v>
+        <v>0.076491</v>
       </c>
       <c r="I13">
-        <v>0.5047138673479027</v>
+        <v>0.001239489010523625</v>
       </c>
       <c r="J13">
-        <v>0.5047138673479027</v>
+        <v>0.001481207739583962</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.5667246308066</v>
+        <v>16.58451233333333</v>
       </c>
       <c r="N13">
-        <v>15.5667246308066</v>
+        <v>49.753537</v>
       </c>
       <c r="O13">
-        <v>0.1049710076994357</v>
+        <v>0.09426175184784683</v>
       </c>
       <c r="P13">
-        <v>0.1049710076994357</v>
+        <v>0.09629389277948987</v>
       </c>
       <c r="Q13">
-        <v>149.5264339874215</v>
+        <v>0.422855310963</v>
       </c>
       <c r="R13">
-        <v>149.5264339874215</v>
+        <v>3.805697798667</v>
       </c>
       <c r="S13">
-        <v>0.05298032325538867</v>
+        <v>0.0001168364055281111</v>
       </c>
       <c r="T13">
-        <v>0.05298032325538867</v>
+        <v>0.0001426312592596486</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>9.605516737381491</v>
+        <v>0.025497</v>
       </c>
       <c r="H14">
-        <v>9.605516737381491</v>
+        <v>0.076491</v>
       </c>
       <c r="I14">
-        <v>0.5047138673479027</v>
+        <v>0.001239489010523625</v>
       </c>
       <c r="J14">
-        <v>0.5047138673479027</v>
+        <v>0.001481207739583962</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>61.31177939613</v>
+        <v>78.20455633333331</v>
       </c>
       <c r="N14">
-        <v>61.31177939613</v>
+        <v>234.613669</v>
       </c>
       <c r="O14">
-        <v>0.4134433812955413</v>
+        <v>0.4444929301687811</v>
       </c>
       <c r="P14">
-        <v>0.4134433812955413</v>
+        <v>0.4540755260734272</v>
       </c>
       <c r="Q14">
-        <v>588.9313231881683</v>
+        <v>1.993981572831</v>
       </c>
       <c r="R14">
-        <v>588.9313231881683</v>
+        <v>17.945834155479</v>
       </c>
       <c r="S14">
-        <v>0.2086706079030662</v>
+        <v>0.0005509441021996492</v>
       </c>
       <c r="T14">
-        <v>0.2086706079030662</v>
+        <v>0.0006725801835756196</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1343,49 +1343,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>9.605516737381491</v>
+        <v>0.025497</v>
       </c>
       <c r="H15">
-        <v>9.605516737381491</v>
+        <v>0.076491</v>
       </c>
       <c r="I15">
-        <v>0.5047138673479027</v>
+        <v>0.001239489010523625</v>
       </c>
       <c r="J15">
-        <v>0.5047138673479027</v>
+        <v>0.001481207739583962</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>50.2693112951037</v>
+        <v>59.02182200000001</v>
       </c>
       <c r="N15">
-        <v>50.2693112951037</v>
+        <v>177.065466</v>
       </c>
       <c r="O15">
-        <v>0.3389807675123138</v>
+        <v>0.3354636076811054</v>
       </c>
       <c r="P15">
-        <v>0.3389807675123138</v>
+        <v>0.3426956961462742</v>
       </c>
       <c r="Q15">
-        <v>482.862711021759</v>
+        <v>1.504879395534</v>
       </c>
       <c r="R15">
-        <v>482.862711021759</v>
+        <v>13.543914559806</v>
       </c>
       <c r="S15">
-        <v>0.1710882941277002</v>
+        <v>0.0004158034551513388</v>
       </c>
       <c r="T15">
-        <v>0.1710882941277002</v>
+        <v>0.0005076035174539752</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.025497</v>
+      </c>
+      <c r="H16">
+        <v>0.076491</v>
+      </c>
+      <c r="I16">
+        <v>0.001239489010523625</v>
+      </c>
+      <c r="J16">
+        <v>0.001481207739583962</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>11.1389315</v>
+      </c>
+      <c r="N16">
+        <v>22.277863</v>
+      </c>
+      <c r="O16">
+        <v>0.06331058615409579</v>
+      </c>
+      <c r="P16">
+        <v>0.04311697781563077</v>
+      </c>
+      <c r="Q16">
+        <v>0.2840093364555</v>
+      </c>
+      <c r="R16">
+        <v>1.704056018733</v>
+      </c>
+      <c r="S16">
+        <v>7.847277578781089E-05</v>
+      </c>
+      <c r="T16">
+        <v>6.386520124798229E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>10.070754</v>
+      </c>
+      <c r="H17">
+        <v>20.141508</v>
+      </c>
+      <c r="I17">
+        <v>0.4895708871901336</v>
+      </c>
+      <c r="J17">
+        <v>0.3900296444874861</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>10.99123566666667</v>
+      </c>
+      <c r="N17">
+        <v>32.973707</v>
+      </c>
+      <c r="O17">
+        <v>0.06247112414817082</v>
+      </c>
+      <c r="P17">
+        <v>0.06381790718517791</v>
+      </c>
+      <c r="Q17">
+        <v>110.690030555026</v>
+      </c>
+      <c r="R17">
+        <v>664.1401833301561</v>
+      </c>
+      <c r="S17">
+        <v>0.03058404367298497</v>
+      </c>
+      <c r="T17">
+        <v>0.02489087565137032</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>10.070754</v>
+      </c>
+      <c r="H18">
+        <v>20.141508</v>
+      </c>
+      <c r="I18">
+        <v>0.4895708871901336</v>
+      </c>
+      <c r="J18">
+        <v>0.3900296444874861</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>16.58451233333333</v>
+      </c>
+      <c r="N18">
+        <v>49.753537</v>
+      </c>
+      <c r="O18">
+        <v>0.09426175184784683</v>
+      </c>
+      <c r="P18">
+        <v>0.09629389277948987</v>
+      </c>
+      <c r="Q18">
+        <v>167.018543918966</v>
+      </c>
+      <c r="R18">
+        <v>1002.111263513796</v>
+      </c>
+      <c r="S18">
+        <v>0.04614780948024659</v>
+      </c>
+      <c r="T18">
+        <v>0.03755747276710054</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>9.605516737381491</v>
-      </c>
-      <c r="H16">
-        <v>9.605516737381491</v>
-      </c>
-      <c r="I16">
-        <v>0.5047138673479027</v>
-      </c>
-      <c r="J16">
-        <v>0.5047138673479027</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>10.9818618476871</v>
-      </c>
-      <c r="N16">
-        <v>10.9818618476871</v>
-      </c>
-      <c r="O16">
-        <v>0.07405392797187098</v>
-      </c>
-      <c r="P16">
-        <v>0.07405392797187098</v>
-      </c>
-      <c r="Q16">
-        <v>105.4864577855697</v>
-      </c>
-      <c r="R16">
-        <v>105.4864577855697</v>
-      </c>
-      <c r="S16">
-        <v>0.03737604437898603</v>
-      </c>
-      <c r="T16">
-        <v>0.03737604437898603</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>10.070754</v>
+      </c>
+      <c r="H19">
+        <v>20.141508</v>
+      </c>
+      <c r="I19">
+        <v>0.4895708871901336</v>
+      </c>
+      <c r="J19">
+        <v>0.3900296444874861</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>78.20455633333331</v>
+      </c>
+      <c r="N19">
+        <v>234.613669</v>
+      </c>
+      <c r="O19">
+        <v>0.4444929301687811</v>
+      </c>
+      <c r="P19">
+        <v>0.4540755260734272</v>
+      </c>
+      <c r="Q19">
+        <v>787.5788485121419</v>
+      </c>
+      <c r="R19">
+        <v>4725.473091072851</v>
+      </c>
+      <c r="S19">
+        <v>0.2176107981724723</v>
+      </c>
+      <c r="T19">
+        <v>0.177102916004887</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>10.070754</v>
+      </c>
+      <c r="H20">
+        <v>20.141508</v>
+      </c>
+      <c r="I20">
+        <v>0.4895708871901336</v>
+      </c>
+      <c r="J20">
+        <v>0.3900296444874861</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>59.02182200000001</v>
+      </c>
+      <c r="N20">
+        <v>177.065466</v>
+      </c>
+      <c r="O20">
+        <v>0.3354636076811054</v>
+      </c>
+      <c r="P20">
+        <v>0.3426956961462742</v>
+      </c>
+      <c r="Q20">
+        <v>594.3942499937881</v>
+      </c>
+      <c r="R20">
+        <v>3566.365499962729</v>
+      </c>
+      <c r="S20">
+        <v>0.1642332160324417</v>
+      </c>
+      <c r="T20">
+        <v>0.1336614805353229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>10.070754</v>
+      </c>
+      <c r="H21">
+        <v>20.141508</v>
+      </c>
+      <c r="I21">
+        <v>0.4895708871901336</v>
+      </c>
+      <c r="J21">
+        <v>0.3900296444874861</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>11.1389315</v>
+      </c>
+      <c r="N21">
+        <v>22.277863</v>
+      </c>
+      <c r="O21">
+        <v>0.06331058615409579</v>
+      </c>
+      <c r="P21">
+        <v>0.04311697781563077</v>
+      </c>
+      <c r="Q21">
+        <v>112.177438959351</v>
+      </c>
+      <c r="R21">
+        <v>448.709755837404</v>
+      </c>
+      <c r="S21">
+        <v>0.03099501983198807</v>
+      </c>
+      <c r="T21">
+        <v>0.01681689952880529</v>
       </c>
     </row>
   </sheetData>
